--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/24_Çorum_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/24_Çorum_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32A2FDD3-A36F-49BA-B1D9-5869FA464E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21394ACB-B52F-459A-B9AA-E219C79C4BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="656" xr2:uid="{850E8947-7EB8-42EA-8CEA-5A9FD32D743C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="656" xr2:uid="{25BD8BF5-88C5-43EE-B5E3-2CEBB9948EBA}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -805,13 +805,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{B3237F60-9A11-44B3-8464-6AFBDF22161F}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{5CE79902-D24B-4BA1-B6F3-04766C8997EE}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{E249A3F6-5DC7-48C7-8B6F-1B9BE301EA54}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{F28A5CF3-4076-405A-A381-408F542481A3}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{11F8F89E-6B33-4A0D-82D1-65D4F11E8AA9}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{4B0ADAD1-0E70-45AC-B2B8-1464B8555F10}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{315CA3D0-7FF7-4FC1-8374-3E98127EC509}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{E5793A5C-99CD-4BBB-A9E0-12000EA756AE}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{B8E49CBE-B59B-4986-B7A5-B8B3D9542E55}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{215DC91C-7A3A-4DB4-B58C-DAC34CBDA626}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{4D5BFFCF-7B60-464B-BFD2-11C9DE841B60}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{E5F012B9-9B39-4D39-81BA-07A320B04AD6}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{998AB92B-C130-4B10-9161-2A399EEE603B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{335B7F13-E797-4E38-8032-42C36FB8D0CF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1181,7 +1181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3625CE4-B1F3-4FC7-8EBA-0034213F983F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008C571A-7DCC-4CE8-91E7-45C056EAC345}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2454,7 +2454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1583F938-9CE9-414C-9467-31C0BBB82668}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441E21BA-C3DE-4E4D-A9D3-BD71F6674DFF}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3721,7 +3721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7921F527-CF1D-46F4-A798-1BC647842E50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463553DC-C004-4967-85B3-F553B2B333BB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4986,7 +4986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C17722-8012-4713-BC3D-445BD0E39192}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C87B416-4248-4094-80CD-397C44B30211}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6243,7 +6243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36E973B-BC8D-47ED-894D-338694CDC308}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B81A411-BFE2-4136-83B1-66E278FB905D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7492,7 +7492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88386D4A-46A0-4CCA-A6FA-76F652AB86CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A588711-3613-4EF2-A420-3AE59073E27E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
